--- a/latex/resultados_algoritmos/Tiempos_QUICKSORT (1).xlsx
+++ b/latex/resultados_algoritmos/Tiempos_QUICKSORT (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Maestria\Semestre1\AlgoritmoOrdenamiento\latex\resultados_algoritmos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EF5483-4136-4636-A750-599057963383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1B7389-2D66-4808-8227-1F3C10CD0C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{967F8964-C70E-4914-BBA2-C756D873EE62}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="19">
   <si>
     <t>#DATOS</t>
   </si>
@@ -88,7 +88,10 @@
     <t>Desviación Estandar</t>
   </si>
   <si>
-    <t>varianza</t>
+    <t>0s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -211,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -244,6 +247,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -580,7 +586,7 @@
   <dimension ref="B2:L23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K16"/>
+      <selection activeCell="H4" sqref="H4:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,19 +605,19 @@
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="16"/>
       <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -649,28 +655,28 @@
       <c r="C4" s="5">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="D4" s="5">
-        <v>1.32E-2</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1.14E-2</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1.1299999999999999E-2</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1.11E-2</v>
+      <c r="D4" s="13">
+        <v>1.18E-2</v>
+      </c>
+      <c r="E4" s="13">
+        <v>1.12E-2</v>
+      </c>
+      <c r="F4" s="13">
+        <v>1.41E-2</v>
+      </c>
+      <c r="G4" s="13">
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="H4" s="2">
         <f>AVERAGE(C4:G4)</f>
-        <v>1.1719999999999998E-2</v>
+        <v>1.162E-2</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K4" s="2">
         <f>STDEVA(C4:G4)</f>
-        <v>8.467585252006619E-4</v>
+        <v>1.6798809481626963E-3</v>
       </c>
       <c r="L4" t="s">
         <v>12</v>
@@ -681,30 +687,30 @@
         <v>1000</v>
       </c>
       <c r="C5" s="5">
-        <v>0.1918</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.17349999999999999</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.1701</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0.187</v>
+        <v>0.18240000000000001</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.1958</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.16819999999999999</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.18310000000000001</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0.17649999999999999</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" ref="H5:H23" si="0">AVERAGE(C5:G5)</f>
-        <v>0.17787999999999998</v>
+        <v>0.1812</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:K23" si="1">STDEVA(C5:G5)</f>
-        <v>1.0897568536146032E-2</v>
+        <v>1.0115582039606032E-2</v>
       </c>
       <c r="L5" t="s">
         <v>12</v>
@@ -715,30 +721,30 @@
         <v>2000</v>
       </c>
       <c r="C6" s="5">
-        <v>0.3518</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.33090000000000003</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.34260000000000002</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.34949999999999998</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0.35089999999999999</v>
+        <v>0.34029999999999999</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.37709999999999999</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.3654</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.34449999999999997</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.34520000000000001</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="0"/>
-        <v>0.34514</v>
+        <v>0.35449999999999998</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="1"/>
-        <v>8.7431687619535115E-3</v>
+        <v>1.5950705313559025E-2</v>
       </c>
       <c r="L6" t="s">
         <v>12</v>
@@ -749,30 +755,30 @@
         <v>3000</v>
       </c>
       <c r="C7" s="5">
-        <v>0.60809999999999997</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.62360000000000004</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0.7097</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0.81299999999999994</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0.62180000000000002</v>
+        <v>0.61380000000000001</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0.66449999999999998</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.6089</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.61019999999999996</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="0"/>
-        <v>0.67523999999999995</v>
+        <v>0.63647999999999993</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="1"/>
-        <v>8.6884423229943789E-2</v>
+        <v>3.5724599367942554E-2</v>
       </c>
       <c r="L7" t="s">
         <v>12</v>
@@ -783,30 +789,30 @@
         <v>4000</v>
       </c>
       <c r="C8" s="5">
-        <v>0.82930000000000004</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.78380000000000005</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1.0297000000000001</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0.8206</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0.87629999999999997</v>
+        <v>0.82879999999999998</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.67559999999999998</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0.62529999999999997</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>0.86793999999999993</v>
+        <v>0.74274000000000007</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="1"/>
-        <v>9.6241690550405448E-2</v>
+        <v>8.7546204943446185E-2</v>
       </c>
       <c r="L8" t="s">
         <v>12</v>
@@ -817,30 +823,30 @@
         <v>5000</v>
       </c>
       <c r="C9" s="2">
-        <v>0.96630000000000005</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1.3512999999999999</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1.0454000000000001</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1.0858000000000001</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1.1745000000000001</v>
+        <v>1.1848000000000001</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1.1435</v>
+      </c>
+      <c r="E9" s="13">
+        <v>1.0603</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.82530000000000003</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1.0117</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="0"/>
-        <v>1.12466</v>
+        <v>1.0451200000000003</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>0.14724117291029773</v>
+        <v>0.14040769921909477</v>
       </c>
       <c r="L9" t="s">
         <v>12</v>
@@ -851,30 +857,30 @@
         <v>6000</v>
       </c>
       <c r="C10" s="2">
-        <v>1.2907</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1.2649999999999999</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1.4908999999999999</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1.1539999999999999</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1.4557</v>
+        <v>1.3</v>
+      </c>
+      <c r="D10" s="13">
+        <v>1.4602999999999999</v>
+      </c>
+      <c r="E10" s="13">
+        <v>1.2896000000000001</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1.3843000000000001</v>
+      </c>
+      <c r="G10" s="13">
+        <v>1.371</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="0"/>
-        <v>1.3312599999999999</v>
+        <v>1.3610400000000002</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="1"/>
-        <v>0.14002397294749211</v>
+        <v>6.9502395642164691E-2</v>
       </c>
       <c r="L10" t="s">
         <v>12</v>
@@ -885,30 +891,30 @@
         <v>7000</v>
       </c>
       <c r="C11" s="2">
-        <v>1.5831</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1.5743</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1.4915</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1.7963</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1.3839999999999999</v>
+        <v>1.605</v>
+      </c>
+      <c r="D11" s="13">
+        <v>1.6834</v>
+      </c>
+      <c r="E11" s="13">
+        <v>1.5006999999999999</v>
+      </c>
+      <c r="F11" s="13">
+        <v>1.5639000000000001</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1.758</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" si="0"/>
-        <v>1.5658400000000001</v>
+        <v>1.6222000000000001</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="1"/>
-        <v>0.1517180872539593</v>
+        <v>0.10080186010188504</v>
       </c>
       <c r="L11" t="s">
         <v>12</v>
@@ -919,30 +925,30 @@
         <v>8000</v>
       </c>
       <c r="C12" s="2">
-        <v>1.7886</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1.6182000000000001</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1.8979999999999999</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1.7597</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1.7636000000000001</v>
+        <v>1.3818999999999999</v>
+      </c>
+      <c r="D12" s="13">
+        <v>1.4577</v>
+      </c>
+      <c r="E12" s="13">
+        <v>1.7968</v>
+      </c>
+      <c r="F12" s="13">
+        <v>1.8967000000000001</v>
+      </c>
+      <c r="G12" s="13">
+        <v>1.9384999999999999</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="0"/>
-        <v>1.7656200000000002</v>
+        <v>1.69432</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="1"/>
-        <v>9.9780168370272801E-2</v>
+        <v>0.25723479935654125</v>
       </c>
       <c r="L12" t="s">
         <v>12</v>
@@ -953,30 +959,30 @@
         <v>9000</v>
       </c>
       <c r="C13" s="2">
-        <v>2.3083999999999998</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1.7225999999999999</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2.0390000000000001</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1.7513000000000001</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1.9619</v>
+        <v>1.3818999999999999</v>
+      </c>
+      <c r="D13" s="13">
+        <v>2.0154999999999998</v>
+      </c>
+      <c r="E13" s="13">
+        <v>2.2997000000000001</v>
+      </c>
+      <c r="F13" s="13">
+        <v>2.2063999999999999</v>
+      </c>
+      <c r="G13" s="13">
+        <v>1.619</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="0"/>
-        <v>1.9566400000000002</v>
+        <v>1.9044999999999999</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="1"/>
-        <v>0.23847702824381112</v>
+        <v>0.39187646650443431</v>
       </c>
       <c r="L13" t="s">
         <v>12</v>
@@ -987,30 +993,30 @@
         <v>10000</v>
       </c>
       <c r="C14" s="2">
-        <v>2.1842000000000001</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2.0760000000000001</v>
-      </c>
-      <c r="E14" s="2">
-        <v>2.1389</v>
-      </c>
-      <c r="F14" s="2">
-        <v>2.2170999999999998</v>
-      </c>
-      <c r="G14" s="2">
-        <v>2.2900999999999998</v>
+        <v>2.5971000000000002</v>
+      </c>
+      <c r="D14" s="13">
+        <v>2.6880000000000002</v>
+      </c>
+      <c r="E14" s="13">
+        <v>2.4645999999999999</v>
+      </c>
+      <c r="F14" s="13">
+        <v>2.5718999999999999</v>
+      </c>
+      <c r="G14" s="13">
+        <v>2.1600999999999999</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="0"/>
-        <v>2.1812600000000004</v>
+        <v>2.49634</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="1"/>
-        <v>8.0643245222399018E-2</v>
+        <v>0.20412019253371294</v>
       </c>
       <c r="L14" t="s">
         <v>12</v>
@@ -1021,30 +1027,30 @@
         <v>20000</v>
       </c>
       <c r="C15" s="2">
-        <v>5.2069999999999999</v>
-      </c>
-      <c r="D15" s="2">
-        <v>6.3331999999999997</v>
-      </c>
-      <c r="E15" s="2">
-        <v>5.0427</v>
-      </c>
-      <c r="F15" s="2">
-        <v>4.4318</v>
-      </c>
-      <c r="G15" s="2">
-        <v>5.4523000000000001</v>
+        <v>4.9282000000000004</v>
+      </c>
+      <c r="D15" s="13">
+        <v>10.712999999999999</v>
+      </c>
+      <c r="E15" s="13">
+        <v>5.7096999999999998</v>
+      </c>
+      <c r="F15" s="13">
+        <v>7.5340999999999996</v>
+      </c>
+      <c r="G15" s="13">
+        <v>3.9982000000000002</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="0"/>
-        <v>5.2934000000000001</v>
+        <v>6.5766399999999994</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="1"/>
-        <v>0.69265851254423805</v>
+        <v>2.6525221927441076</v>
       </c>
       <c r="L15" t="s">
         <v>12</v>
@@ -1055,30 +1061,30 @@
         <v>30000</v>
       </c>
       <c r="C16" s="2">
-        <v>7.9200999999999997</v>
-      </c>
-      <c r="D16" s="2">
-        <v>7.0255999999999998</v>
-      </c>
-      <c r="E16" s="2">
-        <v>8.0685000000000002</v>
-      </c>
-      <c r="F16" s="2">
-        <v>11.3276</v>
-      </c>
-      <c r="G16" s="2">
-        <v>7.0937999999999999</v>
+        <v>13.040100000000001</v>
+      </c>
+      <c r="D16" s="13">
+        <v>6.8010999999999999</v>
+      </c>
+      <c r="E16" s="13">
+        <v>11.4811</v>
+      </c>
+      <c r="F16" s="13">
+        <v>15.5182</v>
+      </c>
+      <c r="G16" s="13">
+        <v>13.5512</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="0"/>
-        <v>8.2871199999999998</v>
+        <v>12.078340000000001</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="1"/>
-        <v>1.7636937339005312</v>
+        <v>3.2837818644057291</v>
       </c>
       <c r="L16" t="s">
         <v>12</v>
@@ -1089,30 +1095,30 @@
         <v>40000</v>
       </c>
       <c r="C17" s="2">
-        <v>11.4437</v>
-      </c>
-      <c r="D17" s="2">
-        <v>11.478</v>
-      </c>
-      <c r="E17" s="2">
-        <v>10.288600000000001</v>
-      </c>
-      <c r="F17" s="2">
-        <v>10.7782</v>
-      </c>
-      <c r="G17" s="2">
-        <v>9.8440999999999992</v>
+        <v>17.341799999999999</v>
+      </c>
+      <c r="D17" s="13">
+        <v>12.6027</v>
+      </c>
+      <c r="E17" s="13">
+        <v>19.790199999999999</v>
+      </c>
+      <c r="F17" s="13">
+        <v>17.616099999999999</v>
+      </c>
+      <c r="G17" s="13">
+        <v>15.0922</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" si="0"/>
-        <v>10.76652</v>
+        <v>16.488599999999998</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="1"/>
-        <v>0.71487396581495399</v>
+        <v>2.7363260414285322</v>
       </c>
       <c r="L17" t="s">
         <v>12</v>
@@ -1123,30 +1129,30 @@
         <v>50000</v>
       </c>
       <c r="C18" s="2">
-        <v>13.9162</v>
-      </c>
-      <c r="D18" s="2">
-        <v>13.752700000000001</v>
-      </c>
-      <c r="E18" s="2">
-        <v>11.1662</v>
-      </c>
-      <c r="F18" s="2">
-        <v>15.7035</v>
-      </c>
-      <c r="G18" s="2">
-        <v>15.848699999999999</v>
+        <v>13.430999999999999</v>
+      </c>
+      <c r="D18" s="13">
+        <v>15.03</v>
+      </c>
+      <c r="E18" s="13">
+        <v>19.6934</v>
+      </c>
+      <c r="F18" s="13">
+        <v>21.231400000000001</v>
+      </c>
+      <c r="G18" s="13">
+        <v>16.4588</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" si="0"/>
-        <v>14.077459999999999</v>
+        <v>17.168919999999996</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="1"/>
-        <v>1.8965894292123389</v>
+        <v>3.2375931696246485</v>
       </c>
       <c r="L18" t="s">
         <v>12</v>
@@ -1157,30 +1163,30 @@
         <v>100000</v>
       </c>
       <c r="C19" s="2">
-        <v>28.5367</v>
-      </c>
-      <c r="D19" s="2">
-        <v>30.168299999999999</v>
-      </c>
-      <c r="E19" s="2">
-        <v>32.017499999999998</v>
-      </c>
-      <c r="F19" s="2">
-        <v>27.348299999999998</v>
-      </c>
-      <c r="G19" s="2">
-        <v>28.5884</v>
+        <v>40.360700000000001</v>
+      </c>
+      <c r="D19" s="13">
+        <v>55.429400000000001</v>
+      </c>
+      <c r="E19" s="13">
+        <v>43.900500000000001</v>
+      </c>
+      <c r="F19" s="13">
+        <v>58.648600000000002</v>
+      </c>
+      <c r="G19" s="13">
+        <v>45.601399999999998</v>
       </c>
       <c r="H19" s="2">
         <f t="shared" si="0"/>
-        <v>29.33184</v>
+        <v>48.788120000000006</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="1"/>
-        <v>1.8049803705303831</v>
+        <v>7.8485840657407486</v>
       </c>
       <c r="L19" t="s">
         <v>12</v>
@@ -1191,30 +1197,30 @@
         <v>200000</v>
       </c>
       <c r="C20" s="2">
-        <v>67.550299999999993</v>
-      </c>
-      <c r="D20" s="2">
-        <v>68.364800000000002</v>
-      </c>
-      <c r="E20" s="2">
-        <v>61.019199999999998</v>
-      </c>
-      <c r="F20" s="2">
-        <v>61.0045</v>
-      </c>
-      <c r="G20" s="2">
-        <v>69.036299999999997</v>
+        <v>71.063100000000006</v>
+      </c>
+      <c r="D20" s="13">
+        <v>63.717799999999997</v>
+      </c>
+      <c r="E20" s="13">
+        <v>49.987400000000001</v>
+      </c>
+      <c r="F20" s="13">
+        <v>56.183900000000001</v>
+      </c>
+      <c r="G20" s="13">
+        <v>62.649500000000003</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="0"/>
-        <v>65.395020000000002</v>
+        <v>60.72034</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="1"/>
-        <v>4.0357221072566425</v>
+        <v>7.9914704230823901</v>
       </c>
       <c r="L20" t="s">
         <v>12</v>
@@ -1225,30 +1231,30 @@
         <v>300000</v>
       </c>
       <c r="C21" s="2">
-        <v>95.689899999999994</v>
-      </c>
-      <c r="D21" s="2">
-        <v>102.20610000000001</v>
-      </c>
-      <c r="E21" s="2">
-        <v>91.804199999999994</v>
-      </c>
-      <c r="F21" s="2">
-        <v>92.442099999999996</v>
-      </c>
-      <c r="G21" s="2">
-        <v>98.262900000000002</v>
+        <v>82.342799999999997</v>
+      </c>
+      <c r="D21" s="13">
+        <v>101.7876</v>
+      </c>
+      <c r="E21" s="13">
+        <v>91.336500000000001</v>
+      </c>
+      <c r="F21" s="13">
+        <v>109.46169999999999</v>
+      </c>
+      <c r="G21" s="13">
+        <v>90.956400000000002</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="0"/>
-        <v>96.081040000000002</v>
+        <v>95.176999999999992</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="1"/>
-        <v>4.3000903557948682</v>
+        <v>10.547894110911425</v>
       </c>
       <c r="L21" t="s">
         <v>12</v>
@@ -1259,30 +1265,30 @@
         <v>400000</v>
       </c>
       <c r="C22" s="2">
-        <v>128.8999</v>
-      </c>
-      <c r="D22" s="2">
-        <v>118.9781</v>
-      </c>
-      <c r="E22" s="2">
-        <v>126.9516</v>
-      </c>
-      <c r="F22" s="2">
-        <v>130.24100000000001</v>
-      </c>
-      <c r="G22" s="2">
-        <v>130.96950000000001</v>
+        <v>117.8982</v>
+      </c>
+      <c r="D22" s="13">
+        <v>112.1658</v>
+      </c>
+      <c r="E22" s="13">
+        <v>125.26900000000001</v>
+      </c>
+      <c r="F22" s="13">
+        <v>124.87050000000001</v>
+      </c>
+      <c r="G22" s="13">
+        <v>139.72190000000001</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" si="0"/>
-        <v>127.20802</v>
+        <v>123.98508000000001</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="1"/>
-        <v>4.8478730343316601</v>
+        <v>10.329876701926311</v>
       </c>
       <c r="L22" t="s">
         <v>12</v>
@@ -1293,30 +1299,30 @@
         <v>500000</v>
       </c>
       <c r="C23" s="1">
-        <v>161.09299999999999</v>
-      </c>
-      <c r="D23" s="1">
-        <v>157.3827</v>
-      </c>
-      <c r="E23" s="1">
-        <v>163.56659999999999</v>
-      </c>
-      <c r="F23" s="1">
-        <v>178.62299999999999</v>
-      </c>
-      <c r="G23" s="1">
-        <v>161.9324</v>
+        <v>169.53450000000001</v>
+      </c>
+      <c r="D23" s="13">
+        <v>158.3801</v>
+      </c>
+      <c r="E23" s="13">
+        <v>163.6028</v>
+      </c>
+      <c r="F23" s="13">
+        <v>150.78790000000001</v>
+      </c>
+      <c r="G23" s="13">
+        <v>149.91030000000001</v>
       </c>
       <c r="H23" s="2">
         <f t="shared" si="0"/>
-        <v>164.51953999999998</v>
+        <v>158.44311999999999</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="1"/>
-        <v>8.203423577263333</v>
+        <v>8.3823682502023242</v>
       </c>
       <c r="L23" t="s">
         <v>12</v>
@@ -1339,7 +1345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8F0555-630C-4810-9427-A4DC01D6E676}">
   <dimension ref="B2:L23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H4" sqref="H4:H23"/>
     </sheetView>
   </sheetViews>
@@ -1355,19 +1361,19 @@
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="16"/>
       <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -1405,31 +1411,31 @@
       <c r="C4" s="5">
         <v>0</v>
       </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
+      <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
+        <v>0.51270000000000004</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="H4" s="2">
         <f>AVERAGE(C4:G4)</f>
-        <v>0</v>
+        <v>0.25635000000000002</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K4" s="2">
         <f>STDEVA(C4:G4)</f>
-        <v>0</v>
+        <v>0.22928641041282843</v>
       </c>
       <c r="L4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
@@ -1440,30 +1446,30 @@
         <v>0</v>
       </c>
       <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.52139999999999997</v>
+        <v>0.52070000000000005</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
       </c>
       <c r="G5" s="5">
-        <v>0</v>
+        <v>0.50570000000000004</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" ref="H5:H23" si="0">AVERAGE(C5:G5)</f>
-        <v>0.10428</v>
+        <v>0.25660000000000005</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:K23" si="1">STDEVA(C5:G5)</f>
-        <v>0.23317716869367805</v>
+        <v>0.28114124030458432</v>
       </c>
       <c r="L5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -1474,30 +1480,30 @@
         <v>0</v>
       </c>
       <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.50619999999999998</v>
+        <v>0.58889999999999998</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="F6" s="5">
         <v>0</v>
       </c>
-      <c r="G6" s="5">
-        <v>0</v>
+      <c r="G6" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="0"/>
-        <v>0.10124</v>
+        <v>0.1963</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="1"/>
-        <v>0.2263795220420787</v>
+        <v>0.26336408638992526</v>
       </c>
       <c r="L6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -1505,33 +1511,33 @@
         <v>3000</v>
       </c>
       <c r="C7" s="5">
-        <v>0</v>
+        <v>0.50860000000000005</v>
       </c>
       <c r="D7" s="5">
         <v>0</v>
       </c>
       <c r="E7" s="5">
+        <v>0.51290000000000002</v>
+      </c>
+      <c r="F7" s="5">
         <v>0</v>
       </c>
-      <c r="F7" s="5">
-        <v>0.51580000000000004</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0.22950000000000001</v>
+      <c r="G7" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="0"/>
-        <v>0.14906000000000003</v>
+        <v>0.25537500000000002</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="1"/>
-        <v>0.22782969077800197</v>
+        <v>0.27975342714612095</v>
       </c>
       <c r="L7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -1539,67 +1545,67 @@
         <v>4000</v>
       </c>
       <c r="C8" s="5">
-        <v>0</v>
+        <v>0.99760000000000004</v>
       </c>
       <c r="D8" s="5">
-        <v>0.51790000000000003</v>
+        <v>0.52529999999999999</v>
       </c>
       <c r="E8" s="5">
-        <v>0</v>
+        <v>0.5242</v>
       </c>
       <c r="F8" s="5">
         <v>0</v>
       </c>
       <c r="G8" s="5">
-        <v>0.51639999999999997</v>
+        <v>0.99850000000000005</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>0.20685999999999999</v>
+        <v>0.60911999999999999</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="1"/>
-        <v>0.28325521707463741</v>
+        <v>0.41466789964982825</v>
       </c>
       <c r="L8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>5000</v>
       </c>
-      <c r="C9" s="6">
-        <v>0.51570000000000005</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0.62549999999999994</v>
+      <c r="C9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.99670000000000003</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.52649999999999997</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.90910000000000002</v>
       </c>
       <c r="G9" s="5">
-        <v>1.0321</v>
+        <v>0.51970000000000005</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="0"/>
-        <v>0.43466000000000005</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>0.44095934393093428</v>
+        <v>0.39506431122033786</v>
       </c>
       <c r="L9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
@@ -1607,475 +1613,475 @@
         <v>6000</v>
       </c>
       <c r="C10" s="5">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
+        <v>0.51180000000000003</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.51359999999999995</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1.0408999999999999</v>
       </c>
       <c r="F10" s="5">
-        <v>0.5161</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0.51580000000000004</v>
+        <v>0.68430000000000002</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.52180000000000004</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="0"/>
-        <v>0.20638000000000001</v>
+        <v>0.65448000000000006</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="1"/>
-        <v>0.28259747344942771</v>
+        <v>0.22804516438635555</v>
       </c>
       <c r="L10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>7000</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
+        <v>1.0397000000000001</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1.2934000000000001</v>
+      </c>
+      <c r="E11" s="5">
         <v>0</v>
       </c>
-      <c r="D11" s="6">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
-        <v>1.0015000000000001</v>
+      <c r="F11" s="5">
+        <v>0.5857</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.99839999999999995</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" si="0"/>
-        <v>0.20030000000000001</v>
+        <v>0.78344000000000003</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="1"/>
-        <v>0.44788441589320793</v>
+        <v>0.50616586510747641</v>
       </c>
       <c r="L11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>8000</v>
       </c>
-      <c r="C12" s="6">
-        <v>0</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0.99919999999999998</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0</v>
+      <c r="C12" s="5">
+        <v>0.50790000000000002</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1.1180000000000001</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.5403</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1.1184000000000001</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="0"/>
-        <v>0.19983999999999999</v>
+        <v>0.85680000000000012</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="1"/>
-        <v>0.44685582462355794</v>
+        <v>0.3077735449969663</v>
       </c>
       <c r="L12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>9000</v>
       </c>
-      <c r="C13" s="6">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6">
-        <v>1.0016</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6">
-        <v>1.2778</v>
+      <c r="C13" s="5">
+        <v>0.96870000000000001</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1.0237000000000001</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.51929999999999998</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1.9984999999999999</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1.4789000000000001</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="0"/>
-        <v>0.45587999999999995</v>
+        <v>1.1978199999999999</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="1"/>
-        <v>0.63183117365321584</v>
+        <v>0.56198255488938476</v>
       </c>
       <c r="L13" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>10000</v>
       </c>
-      <c r="C14" s="6">
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="D14" s="6">
-        <v>1.0847</v>
-      </c>
-      <c r="E14" s="6">
-        <v>1.0852999999999999</v>
-      </c>
-      <c r="F14" s="6">
-        <v>1.085</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0.99909999999999999</v>
+      <c r="C14" s="5">
+        <v>0.51719999999999999</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1.0376000000000001</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1.9984</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1.8542000000000001</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="0"/>
-        <v>0.95442000000000005</v>
+        <v>1.28098</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="1"/>
-        <v>0.24678548782292661</v>
+        <v>0.62574500557335666</v>
       </c>
       <c r="L14" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>20000</v>
       </c>
-      <c r="C15" s="6">
-        <v>1.5506</v>
+      <c r="C15" s="5">
+        <v>2.0223</v>
       </c>
       <c r="D15" s="5">
-        <v>1.9988999999999999</v>
+        <v>2.2993999999999999</v>
       </c>
       <c r="E15" s="5">
-        <v>1.5457000000000001</v>
+        <v>1.556</v>
       </c>
       <c r="F15" s="5">
-        <v>2.5828000000000002</v>
+        <v>4.3558000000000003</v>
       </c>
       <c r="G15" s="5">
-        <v>1.5068999999999999</v>
+        <v>2.2355999999999998</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="0"/>
-        <v>1.8369800000000001</v>
+        <v>2.4938199999999999</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="1"/>
-        <v>0.46321590754204445</v>
+        <v>1.0808889498926342</v>
       </c>
       <c r="L15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>30000</v>
       </c>
-      <c r="C16" s="6">
-        <v>2.5785</v>
-      </c>
-      <c r="D16" s="6">
-        <v>4.0865</v>
+      <c r="C16" s="5">
+        <v>3.1051000000000002</v>
+      </c>
+      <c r="D16" s="5">
+        <v>2.577</v>
       </c>
       <c r="E16" s="5">
-        <v>4.0209000000000001</v>
+        <v>4.2754000000000003</v>
       </c>
       <c r="F16" s="5">
-        <v>4.1210000000000004</v>
-      </c>
-      <c r="G16" s="6">
-        <v>4.1231999999999998</v>
+        <v>3.9935</v>
+      </c>
+      <c r="G16" s="5">
+        <v>3.2309999999999999</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="0"/>
-        <v>3.7860199999999997</v>
+        <v>3.4364000000000003</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="1"/>
-        <v>0.67628827950808423</v>
+        <v>0.69007220998964791</v>
       </c>
       <c r="L16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>40000</v>
       </c>
-      <c r="C17" s="6">
-        <v>5.5156999999999998</v>
-      </c>
-      <c r="D17" s="6">
-        <v>6.0437000000000003</v>
-      </c>
-      <c r="E17" s="6">
-        <v>6.0461</v>
-      </c>
-      <c r="F17" s="6">
-        <v>5.6390000000000002</v>
-      </c>
-      <c r="G17" s="6">
-        <v>5.9962999999999997</v>
+      <c r="C17" s="5">
+        <v>5.6245000000000003</v>
+      </c>
+      <c r="D17" s="5">
+        <v>3.9986999999999999</v>
+      </c>
+      <c r="E17" s="5">
+        <v>6.9970999999999997</v>
+      </c>
+      <c r="F17" s="5">
+        <v>7.1078000000000001</v>
+      </c>
+      <c r="G17" s="5">
+        <v>6.9966999999999997</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" si="0"/>
-        <v>5.84816</v>
+        <v>6.1449600000000002</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="1"/>
-        <v>0.25181300204715407</v>
+        <v>1.3468458590350998</v>
       </c>
       <c r="L17" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>50000</v>
       </c>
-      <c r="C18" s="6">
-        <v>6.3792999999999997</v>
-      </c>
-      <c r="D18" s="6">
-        <v>6.3052999999999999</v>
-      </c>
-      <c r="E18" s="6">
-        <v>8.7363</v>
-      </c>
-      <c r="F18" s="6">
-        <v>7.9497</v>
-      </c>
-      <c r="G18" s="6">
-        <v>8.9353999999999996</v>
+      <c r="C18" s="5">
+        <v>6.4618000000000002</v>
+      </c>
+      <c r="D18" s="5">
+        <v>5.9961000000000002</v>
+      </c>
+      <c r="E18" s="5">
+        <v>8.9939</v>
+      </c>
+      <c r="F18" s="5">
+        <v>9.9946999999999999</v>
+      </c>
+      <c r="G18" s="5">
+        <v>6.9957000000000003</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" si="0"/>
-        <v>7.6611999999999991</v>
+        <v>7.6884399999999999</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="1"/>
-        <v>1.2594036604679275</v>
+        <v>1.72276014523206</v>
       </c>
       <c r="L18" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>100000</v>
       </c>
-      <c r="C19" s="6">
-        <v>15.665699999999999</v>
-      </c>
-      <c r="D19" s="6">
-        <v>7.7031999999999998</v>
-      </c>
-      <c r="E19" s="7">
-        <v>13.991</v>
-      </c>
-      <c r="F19" s="6">
-        <v>15.6274</v>
-      </c>
-      <c r="G19" s="6">
-        <v>11.1317</v>
+      <c r="C19" s="5">
+        <v>24.7287</v>
+      </c>
+      <c r="D19" s="5">
+        <v>10.991400000000001</v>
+      </c>
+      <c r="E19" s="5">
+        <v>13.991300000000001</v>
+      </c>
+      <c r="F19" s="5">
+        <v>23.566400000000002</v>
+      </c>
+      <c r="G19" s="5">
+        <v>13.9909</v>
       </c>
       <c r="H19" s="2">
         <f t="shared" si="0"/>
-        <v>12.8238</v>
+        <v>17.453740000000003</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="1"/>
-        <v>3.4052412242012959</v>
+        <v>6.2456233710495157</v>
       </c>
       <c r="L19" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>200000</v>
       </c>
-      <c r="C20" s="6">
-        <v>35.948300000000003</v>
-      </c>
-      <c r="D20" s="6">
-        <v>30.7805</v>
-      </c>
-      <c r="E20" s="6">
-        <v>31.017099999999999</v>
-      </c>
-      <c r="F20" s="6">
-        <v>25.9709</v>
-      </c>
-      <c r="G20" s="6">
-        <v>28.869700000000002</v>
+      <c r="C20" s="5">
+        <v>34.046900000000001</v>
+      </c>
+      <c r="D20" s="5">
+        <v>35.979599999999998</v>
+      </c>
+      <c r="E20" s="5">
+        <v>23.984100000000002</v>
+      </c>
+      <c r="F20" s="5">
+        <v>33.7119</v>
+      </c>
+      <c r="G20" s="5">
+        <v>27.988</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="0"/>
-        <v>30.517299999999999</v>
+        <v>31.142099999999999</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K20" s="2">
         <f>STDEVA(C20:G20)</f>
-        <v>3.6468881940635778</v>
+        <v>4.9907026594458683</v>
       </c>
       <c r="L20" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>300000</v>
       </c>
-      <c r="C21" s="6">
-        <v>53.4649</v>
-      </c>
-      <c r="D21" s="6">
-        <v>55.311</v>
-      </c>
-      <c r="E21" s="6">
-        <v>52.065600000000003</v>
-      </c>
-      <c r="F21" s="6">
-        <v>51.821599999999997</v>
-      </c>
-      <c r="G21" s="6">
-        <v>48.800899999999999</v>
+      <c r="C21" s="5">
+        <v>53.478099999999998</v>
+      </c>
+      <c r="D21" s="5">
+        <v>40.976599999999998</v>
+      </c>
+      <c r="E21" s="5">
+        <v>41.9771</v>
+      </c>
+      <c r="F21" s="5">
+        <v>51.507199999999997</v>
+      </c>
+      <c r="G21" s="5">
+        <v>38.489800000000002</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="0"/>
-        <v>52.2928</v>
+        <v>45.285760000000003</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="1"/>
-        <v>2.3953269369754104</v>
+        <v>6.7365034248487596</v>
       </c>
       <c r="L21" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>400000</v>
       </c>
-      <c r="C22" s="6">
-        <v>63.5428</v>
-      </c>
-      <c r="D22" s="6">
-        <v>82.376400000000004</v>
-      </c>
-      <c r="E22" s="7">
-        <v>64.229799999999997</v>
-      </c>
-      <c r="F22" s="6">
-        <v>68.836299999999994</v>
-      </c>
-      <c r="G22" s="6">
-        <v>89.385599999999997</v>
+      <c r="C22" s="5">
+        <v>50.7149</v>
+      </c>
+      <c r="D22" s="5">
+        <v>49.970399999999998</v>
+      </c>
+      <c r="E22" s="5">
+        <v>51.831899999999997</v>
+      </c>
+      <c r="F22" s="5">
+        <v>94.456999999999994</v>
+      </c>
+      <c r="G22" s="5">
+        <v>47.972700000000003</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" si="0"/>
-        <v>73.674180000000007</v>
+        <v>58.989380000000004</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="1"/>
-        <v>11.595512154794989</v>
+        <v>19.876857436149155</v>
       </c>
       <c r="L22" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <v>500000</v>
       </c>
-      <c r="C23" s="6">
-        <v>97.601900000000001</v>
-      </c>
-      <c r="D23" s="6">
-        <v>79.090900000000005</v>
-      </c>
-      <c r="E23" s="6">
-        <v>107.3047</v>
-      </c>
-      <c r="F23" s="6">
-        <v>99.370800000000003</v>
-      </c>
-      <c r="G23" s="6">
-        <v>101.3206</v>
+      <c r="C23" s="5">
+        <v>65.482500000000002</v>
+      </c>
+      <c r="D23" s="5">
+        <v>94.969899999999996</v>
+      </c>
+      <c r="E23" s="5">
+        <v>65.9726</v>
+      </c>
+      <c r="F23" s="5">
+        <v>146.10589999999999</v>
+      </c>
+      <c r="G23" s="5">
+        <v>83.882999999999996</v>
       </c>
       <c r="H23" s="2">
         <f t="shared" si="0"/>
-        <v>96.937780000000004</v>
+        <v>91.282779999999988</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="1"/>
-        <v>10.624898927378084</v>
+        <v>33.09148585432515</v>
       </c>
       <c r="L23" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2090,10 +2096,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FAAAC5E-3C65-436D-85A7-0A3FA2873A0E}">
-  <dimension ref="B2:Q23"/>
+  <dimension ref="B2:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="K4" sqref="K4:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2109,31 +2115,30 @@
     <col min="13" max="13" width="5.140625" customWidth="1"/>
     <col min="14" max="14" width="12.140625" customWidth="1"/>
     <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="17"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="17"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="18"/>
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
-    <row r="3" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
@@ -2168,32 +2173,29 @@
       <c r="O3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <v>100</v>
       </c>
       <c r="C4" s="5">
-        <v>1.3170000056561499E-4</v>
+        <v>1.4869999722577599E-4</v>
       </c>
       <c r="D4" s="5">
-        <v>4.23699999373639E-4</v>
+        <v>3.01399995805695E-4</v>
       </c>
       <c r="E4" s="5">
-        <v>1.4869999904476501E-4</v>
+        <v>1.4970000484026901E-4</v>
       </c>
       <c r="F4" s="5">
-        <v>1.3080000098852901E-4</v>
+        <v>5.93200005823746E-4</v>
       </c>
       <c r="G4" s="5">
-        <v>1.5290000010281801E-4</v>
+        <v>4.9550000403541996E-4</v>
       </c>
       <c r="H4" s="6">
         <f>AVERAGE(C4:G4)</f>
-        <v>1.9756000001507323E-4</v>
+        <v>3.3770000154618123E-4</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>15</v>
@@ -2201,49 +2203,45 @@
       <c r="J4" s="10"/>
       <c r="K4" s="12">
         <f>H4*1000</f>
-        <v>0.19756000001507323</v>
+        <v>0.33770000154618124</v>
       </c>
       <c r="L4" s="12" t="s">
         <v>12</v>
       </c>
       <c r="N4">
         <f t="shared" ref="N4:N23" si="0">STDEVA(C4:G4)</f>
-        <v>1.2680255477944845E-4</v>
+        <v>2.0159599684935149E-4</v>
       </c>
       <c r="O4" s="1">
         <f>N4*1000</f>
-        <v>0.12680255477944846</v>
+        <v>0.20159599684935148</v>
       </c>
       <c r="P4" t="s">
         <v>12</v>
       </c>
-      <c r="Q4">
-        <f>_xlfn.VAR.S(C4:G4)</f>
-        <v>1.6078887898595027E-8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>1000</v>
       </c>
       <c r="C5" s="5">
-        <v>3.7566000009974202E-3</v>
+        <v>8.6032999970484508E-3</v>
       </c>
       <c r="D5" s="5">
-        <v>2.6213000001007402E-3</v>
+        <v>2.4521000013919499E-3</v>
       </c>
       <c r="E5" s="5">
-        <v>2.1443000005092398E-3</v>
+        <v>3.0144999909680302E-3</v>
       </c>
       <c r="F5" s="5">
-        <v>2.1768999995401802E-3</v>
+        <v>5.7861000095726896E-3</v>
       </c>
       <c r="G5" s="5">
-        <v>2.5060999996639999E-3</v>
+        <v>3.28689999878406E-3</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ref="H5:H23" si="1">AVERAGE(C5:G5)</f>
-        <v>2.6410400001623162E-3</v>
+        <v>4.6285799995530357E-3</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>15</v>
@@ -2251,45 +2249,45 @@
       <c r="J5" s="10"/>
       <c r="K5" s="12">
         <f t="shared" ref="K5:K23" si="2">H5*1000</f>
-        <v>2.6410400001623162</v>
+        <v>4.6285799995530361</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>12</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>6.5674370081352667E-4</v>
+        <v>2.5632341052398231E-3</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" ref="O5:O23" si="3">N5*1000</f>
-        <v>0.65674370081352662</v>
+        <v>2.5632341052398231</v>
       </c>
       <c r="P5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>2000</v>
       </c>
       <c r="C6" s="5">
-        <v>4.6213999994506498E-3</v>
+        <v>1.2348300006124101E-2</v>
       </c>
       <c r="D6" s="5">
-        <v>4.2899999989458497E-3</v>
+        <v>1.03385000111302E-2</v>
       </c>
       <c r="E6" s="5">
-        <v>5.1632000013341799E-3</v>
+        <v>1.04472000093664E-2</v>
       </c>
       <c r="F6" s="5">
-        <v>9.0789000005315704E-3</v>
+        <v>1.22451999923214E-2</v>
       </c>
       <c r="G6" s="5">
-        <v>4.2689999991125599E-3</v>
+        <v>9.0517999924486503E-3</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" si="1"/>
-        <v>5.4844999998749618E-3</v>
+        <v>1.0886200002278152E-2</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>15</v>
@@ -2297,45 +2295,45 @@
       <c r="J6" s="10"/>
       <c r="K6" s="12">
         <f t="shared" si="2"/>
-        <v>5.484499999874962</v>
+        <v>10.886200002278152</v>
       </c>
       <c r="L6" s="12" t="s">
         <v>12</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>2.0415776478368407E-3</v>
+        <v>1.4002086509094219E-3</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="3"/>
-        <v>2.0415776478368408</v>
+        <v>1.4002086509094218</v>
       </c>
       <c r="P6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>3000</v>
       </c>
       <c r="C7" s="5">
-        <v>9.4573000005766499E-3</v>
+        <v>1.22082000016234E-2</v>
       </c>
       <c r="D7" s="5">
-        <v>1.32687999994232E-2</v>
+        <v>2.53053000051295E-2</v>
       </c>
       <c r="E7" s="5">
-        <v>7.7060000003257301E-3</v>
+        <v>3.1940000000759E-2</v>
       </c>
       <c r="F7" s="5">
-        <v>9.6057999999174994E-3</v>
+        <v>4.03812000004109E-2</v>
       </c>
       <c r="G7" s="5">
-        <v>8.9974999991682108E-3</v>
+        <v>2.86209000041708E-2</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" si="1"/>
-        <v>9.8070799998822584E-3</v>
+        <v>2.7691120002418725E-2</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>15</v>
@@ -2343,45 +2341,45 @@
       <c r="J7" s="10"/>
       <c r="K7" s="12">
         <f t="shared" si="2"/>
-        <v>9.8070799998822586</v>
+        <v>27.691120002418725</v>
       </c>
       <c r="L7" s="12" t="s">
         <v>12</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>2.0746277969562635E-3</v>
+        <v>1.0312232436018488E-2</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" si="3"/>
-        <v>2.0746277969562636</v>
+        <v>10.312232436018489</v>
       </c>
       <c r="P7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>4000</v>
       </c>
       <c r="C8" s="5">
-        <v>1.1405799999920399E-2</v>
+        <v>3.9125999988755197E-2</v>
       </c>
       <c r="D8" s="5">
-        <v>9.9618999993253896E-3</v>
+        <v>3.1122500004130398E-2</v>
       </c>
       <c r="E8" s="5">
-        <v>1.17065000013099E-2</v>
+        <v>5.3146999998716603E-2</v>
       </c>
       <c r="F8" s="5">
-        <v>1.09267999996518E-2</v>
+        <v>2.6261899998644301E-2</v>
       </c>
       <c r="G8" s="5">
-        <v>1.0110700000950599E-2</v>
+        <v>3.3032699997420402E-2</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" si="1"/>
-        <v>1.0822340000231617E-2</v>
+        <v>3.653801999753338E-2</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>15</v>
@@ -2389,45 +2387,45 @@
       <c r="J8" s="10"/>
       <c r="K8" s="12">
         <f t="shared" si="2"/>
-        <v>10.822340000231616</v>
+        <v>36.538019997533382</v>
       </c>
       <c r="L8" s="12" t="s">
         <v>12</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>7.7134053017435876E-4</v>
+        <v>1.0365442880653653E-2</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" si="3"/>
-        <v>0.77134053017435877</v>
+        <v>10.365442880653653</v>
       </c>
       <c r="P8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>5000</v>
       </c>
       <c r="C9" s="6">
-        <v>1.52066999999078E-2</v>
+        <v>4.9847800008137703E-2</v>
       </c>
       <c r="D9" s="6">
-        <v>1.20506999992358E-2</v>
+        <v>3.7453600001754198E-2</v>
       </c>
       <c r="E9" s="6">
-        <v>1.26815999992686E-2</v>
+        <v>2.9724699998041601E-2</v>
       </c>
       <c r="F9" s="6">
-        <v>1.17439000005106E-2</v>
+        <v>6.0864899991429397E-2</v>
       </c>
       <c r="G9" s="5">
-        <v>1.6773699999248399E-2</v>
+        <v>2.5839199995971202E-2</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" si="1"/>
-        <v>1.369131999963424E-2</v>
+        <v>4.074603999906682E-2</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>15</v>
@@ -2435,45 +2433,45 @@
       <c r="J9" s="10"/>
       <c r="K9" s="12">
         <f t="shared" si="2"/>
-        <v>13.69131999963424</v>
+        <v>40.746039999066824</v>
       </c>
       <c r="L9" s="12" t="s">
         <v>12</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>2.1966483631366079E-3</v>
+        <v>1.4509777204414645E-2</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" si="3"/>
-        <v>2.1966483631366081</v>
+        <v>14.509777204414645</v>
       </c>
       <c r="P9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>6000</v>
       </c>
       <c r="C10" s="5">
-        <v>2.3126300000512801E-2</v>
+        <v>6.1420500001986497E-2</v>
       </c>
       <c r="D10" s="6">
-        <v>1.5780600000653001E-2</v>
+        <v>5.17666000087047E-2</v>
       </c>
       <c r="E10" s="6">
-        <v>1.6788799999631E-2</v>
+        <v>3.2493399994564201E-2</v>
       </c>
       <c r="F10" s="5">
-        <v>1.5233999998599699E-2</v>
+        <v>9.0762799998628907E-2</v>
       </c>
       <c r="G10" s="6">
-        <v>1.6050300000642798E-2</v>
+        <v>5.90036000066902E-2</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" si="1"/>
-        <v>1.7396000000007857E-2</v>
+        <v>5.9089380002114902E-2</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>15</v>
@@ -2481,45 +2479,45 @@
       <c r="J10" s="10"/>
       <c r="K10" s="12">
         <f t="shared" si="2"/>
-        <v>17.396000000007856</v>
+        <v>59.0893800021149</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>12</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
-        <v>3.2519109608251987E-3</v>
+        <v>2.1033403625726584E-2</v>
       </c>
       <c r="O10" s="1">
         <f t="shared" si="3"/>
-        <v>3.2519109608251986</v>
+        <v>21.033403625726585</v>
       </c>
       <c r="P10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>7000</v>
       </c>
       <c r="C11" s="6">
-        <v>2.1300099999279998E-2</v>
+        <v>8.7734399989130907E-2</v>
       </c>
       <c r="D11" s="6">
-        <v>1.79975999999442E-2</v>
+        <v>5.7036200005677003E-2</v>
       </c>
       <c r="E11" s="6">
-        <v>2.19484999997803E-2</v>
+        <v>7.9888699998264201E-2</v>
       </c>
       <c r="F11" s="6">
-        <v>2.16915999990305E-2</v>
+        <v>6.7072100006043897E-2</v>
       </c>
       <c r="G11" s="6">
-        <v>2.2867200001201099E-2</v>
+        <v>6.1307900003157501E-2</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" si="1"/>
-        <v>2.1160999999847219E-2</v>
+        <v>7.06078600004547E-2</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>15</v>
@@ -2527,45 +2525,45 @@
       <c r="J11" s="10"/>
       <c r="K11" s="12">
         <f t="shared" si="2"/>
-        <v>21.16099999984722</v>
+        <v>70.607860000454707</v>
       </c>
       <c r="L11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
-        <v>1.8600577560170344E-3</v>
+        <v>1.287083109934941E-2</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" si="3"/>
-        <v>1.8600577560170344</v>
+        <v>12.870831099349409</v>
       </c>
       <c r="P11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>8000</v>
       </c>
       <c r="C12" s="6">
-        <v>3.0379400001038399E-2</v>
+        <v>8.0415500007802607E-2</v>
       </c>
       <c r="D12" s="6">
-        <v>2.33406000006652E-2</v>
+        <v>5.2179099991917603E-2</v>
       </c>
       <c r="E12" s="6">
-        <v>3.2982700000502498E-2</v>
+        <v>5.7253299994044902E-2</v>
       </c>
       <c r="F12" s="6">
-        <v>2.29433000004064E-2</v>
+        <v>6.1241600007633602E-2</v>
       </c>
       <c r="G12" s="6">
-        <v>2.74038000006839E-2</v>
+        <v>8.0560699992929502E-2</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" si="1"/>
-        <v>2.7409960000659279E-2</v>
+        <v>6.6330039998865636E-2</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>15</v>
@@ -2573,45 +2571,45 @@
       <c r="J12" s="10"/>
       <c r="K12" s="12">
         <f t="shared" si="2"/>
-        <v>27.409960000659279</v>
+        <v>66.33003999886563</v>
       </c>
       <c r="L12" s="12" t="s">
         <v>12</v>
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
-        <v>4.3698908834979705E-3</v>
+        <v>1.3317661218000534E-2</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" si="3"/>
-        <v>4.3698908834979706</v>
+        <v>13.317661218000534</v>
       </c>
       <c r="P12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>9000</v>
       </c>
       <c r="C13" s="6">
-        <v>3.10282999998889E-2</v>
+        <v>9.6731699988595196E-2</v>
       </c>
       <c r="D13" s="6">
-        <v>3.48925999987841E-2</v>
+        <v>8.2595300002139896E-2</v>
       </c>
       <c r="E13" s="6">
-        <v>2.6888699998380599E-2</v>
+        <v>6.6161399998236406E-2</v>
       </c>
       <c r="F13" s="6">
-        <v>3.34617999997135E-2</v>
+        <v>0.109589800005778</v>
       </c>
       <c r="G13" s="6">
-        <v>3.4107499999663497E-2</v>
+        <v>6.9010499995783903E-2</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" si="1"/>
-        <v>3.2075779999286118E-2</v>
+        <v>8.4817739998106684E-2</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>15</v>
@@ -2619,45 +2617,45 @@
       <c r="J13" s="10"/>
       <c r="K13" s="12">
         <f t="shared" si="2"/>
-        <v>32.075779999286119</v>
+        <v>84.817739998106688</v>
       </c>
       <c r="L13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
-        <v>3.2398466706011408E-3</v>
+        <v>1.8428676688086534E-2</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" si="3"/>
-        <v>3.2398466706011408</v>
+        <v>18.428676688086533</v>
       </c>
       <c r="P13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>10000</v>
       </c>
       <c r="C14" s="6">
-        <v>7.5683099999878295E-2</v>
+        <v>0.107080099987797</v>
       </c>
       <c r="D14" s="6">
-        <v>4.0427500000077998E-2</v>
+        <v>0.109702099987771</v>
       </c>
       <c r="E14" s="6">
-        <v>2.7728799999749702E-2</v>
+        <v>8.5672100001829593E-2</v>
       </c>
       <c r="F14" s="6">
-        <v>3.37796000003436E-2</v>
+        <v>0.112146899991785</v>
       </c>
       <c r="G14" s="6">
-        <v>3.5844799998812897E-2</v>
+        <v>6.8124699988402398E-2</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" si="1"/>
-        <v>4.2692759999772498E-2</v>
+        <v>9.6545179991516988E-2</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>15</v>
@@ -2665,45 +2663,45 @@
       <c r="J14" s="10"/>
       <c r="K14" s="12">
         <f t="shared" si="2"/>
-        <v>42.692759999772498</v>
+        <v>96.545179991516989</v>
       </c>
       <c r="L14" s="12" t="s">
         <v>12</v>
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
-        <v>1.8998375012229611E-2</v>
+        <v>1.9062071648644291E-2</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" si="3"/>
-        <v>18.998375012229612</v>
+        <v>19.062071648644292</v>
       </c>
       <c r="P14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>20000</v>
       </c>
       <c r="C15" s="6">
-        <v>9.2765999999755794E-2</v>
+        <v>0.214319299993803</v>
       </c>
       <c r="D15" s="5">
-        <v>5.8867399999144199E-2</v>
+        <v>0.154044200011412</v>
       </c>
       <c r="E15" s="5">
-        <v>5.7410900000832002E-2</v>
+        <v>0.13970829999016099</v>
       </c>
       <c r="F15" s="5">
-        <v>7.7961200000572703E-2</v>
+        <v>0.14149419999739599</v>
       </c>
       <c r="G15" s="5">
-        <v>5.47549000002618E-2</v>
+        <v>0.19884510000701899</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" si="1"/>
-        <v>6.8352080000113308E-2</v>
+        <v>0.16968221999995819</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>15</v>
@@ -2711,45 +2709,45 @@
       <c r="J15" s="10"/>
       <c r="K15" s="12">
         <f t="shared" si="2"/>
-        <v>68.352080000113304</v>
+        <v>169.68221999995819</v>
       </c>
       <c r="L15" s="12" t="s">
         <v>12</v>
       </c>
       <c r="N15">
         <f t="shared" si="0"/>
-        <v>1.6453924724651445E-2</v>
+        <v>3.4570545635930795E-2</v>
       </c>
       <c r="O15" s="1">
         <f t="shared" si="3"/>
-        <v>16.453924724651444</v>
+        <v>34.570545635930799</v>
       </c>
       <c r="P15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>30000</v>
       </c>
       <c r="C16" s="6">
-        <v>0.106397600000491</v>
+        <v>0.25171979999868199</v>
       </c>
       <c r="D16" s="6">
-        <v>0.106717700000444</v>
+        <v>0.19867680000606899</v>
       </c>
       <c r="E16" s="5">
-        <v>0.109474699998827</v>
+        <v>0.18409120000433099</v>
       </c>
       <c r="F16" s="5">
-        <v>0.123435600000448</v>
+        <v>0.30596700000751298</v>
       </c>
       <c r="G16" s="6">
-        <v>0.100140000000465</v>
+        <v>0.215324000004329</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" si="1"/>
-        <v>0.10923312000013501</v>
+        <v>0.23115576000418478</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>15</v>
@@ -2757,18 +2755,18 @@
       <c r="J16" s="10"/>
       <c r="K16" s="12">
         <f t="shared" si="2"/>
-        <v>109.233120000135</v>
+        <v>231.15576000418477</v>
       </c>
       <c r="L16" s="12" t="s">
         <v>12</v>
       </c>
       <c r="N16">
         <f t="shared" si="0"/>
-        <v>8.6432219372564387E-3</v>
+        <v>4.8836977913674716E-2</v>
       </c>
       <c r="O16" s="1">
         <f t="shared" si="3"/>
-        <v>8.6432219372564383</v>
+        <v>48.836977913674716</v>
       </c>
       <c r="P16" t="s">
         <v>12</v>
@@ -2779,23 +2777,23 @@
         <v>40000</v>
       </c>
       <c r="C17" s="6">
-        <v>0.16201630000068601</v>
+        <v>0.28086719999555498</v>
       </c>
       <c r="D17" s="6">
-        <v>0.15853489999972201</v>
+        <v>0.34745859999384199</v>
       </c>
       <c r="E17" s="6">
-        <v>0.204350599999088</v>
+        <v>0.31443020000006</v>
       </c>
       <c r="F17" s="6">
-        <v>0.19582040000022899</v>
+        <v>0.29713489999994602</v>
       </c>
       <c r="G17" s="6">
-        <v>0.16612089999944099</v>
+        <v>0.32428879999497401</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" si="1"/>
-        <v>0.17736861999983322</v>
+        <v>0.31283593999687537</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>15</v>
@@ -2803,18 +2801,18 @@
       <c r="J17" s="10"/>
       <c r="K17" s="12">
         <f t="shared" si="2"/>
-        <v>177.36861999983321</v>
+        <v>312.83593999687537</v>
       </c>
       <c r="L17" s="12" t="s">
         <v>12</v>
       </c>
       <c r="N17">
         <f t="shared" si="0"/>
-        <v>2.1127052406033762E-2</v>
+        <v>2.549981003172647E-2</v>
       </c>
       <c r="O17" s="1">
         <f t="shared" si="3"/>
-        <v>21.127052406033762</v>
+        <v>25.499810031726469</v>
       </c>
       <c r="P17" t="s">
         <v>12</v>
@@ -2825,23 +2823,23 @@
         <v>50000</v>
       </c>
       <c r="C18" s="6">
-        <v>0.19022690000019701</v>
+        <v>0.33028369999374202</v>
       </c>
       <c r="D18" s="6">
-        <v>0.20450239999990999</v>
+        <v>0.37826760001189502</v>
       </c>
       <c r="E18" s="6">
-        <v>0.21021250000012501</v>
+        <v>0.335875400007353</v>
       </c>
       <c r="F18" s="6">
-        <v>0.20294530000137401</v>
+        <v>0.349078700004611</v>
       </c>
       <c r="G18" s="6">
-        <v>0.27951299999949603</v>
+        <v>0.36418279999634201</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" si="1"/>
-        <v>0.2174800200002204</v>
+        <v>0.35153764000278864</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>15</v>
@@ -2849,18 +2847,18 @@
       <c r="J18" s="10"/>
       <c r="K18" s="12">
         <f t="shared" si="2"/>
-        <v>217.48002000022041</v>
+        <v>351.53764000278863</v>
       </c>
       <c r="L18" s="12" t="s">
         <v>12</v>
       </c>
       <c r="N18">
         <f t="shared" si="0"/>
-        <v>3.5437680195645326E-2</v>
+        <v>1.9858706823761233E-2</v>
       </c>
       <c r="O18" s="1">
         <f t="shared" si="3"/>
-        <v>35.437680195645328</v>
+        <v>19.858706823761231</v>
       </c>
       <c r="P18" t="s">
         <v>12</v>
@@ -2871,23 +2869,23 @@
         <v>100000</v>
       </c>
       <c r="C19" s="6">
-        <v>0.59356860000116196</v>
+        <v>0.75874080001085498</v>
       </c>
       <c r="D19" s="6">
-        <v>0.55471310000029905</v>
+        <v>0.71774610001011696</v>
       </c>
       <c r="E19" s="7">
-        <v>0.50372930000048599</v>
+        <v>0.80306629999540702</v>
       </c>
       <c r="F19" s="6">
-        <v>0.64069909999852803</v>
+        <v>0.82337299999198799</v>
       </c>
       <c r="G19" s="6">
-        <v>0.51658369999859099</v>
+        <v>0.84099950001109303</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" si="1"/>
-        <v>0.56185875999981316</v>
+        <v>0.78878514000389199</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>15</v>
@@ -2895,18 +2893,18 @@
       <c r="J19" s="10"/>
       <c r="K19" s="12">
         <f t="shared" si="2"/>
-        <v>561.85875999981317</v>
+        <v>788.78514000389202</v>
       </c>
       <c r="L19" s="12" t="s">
         <v>12</v>
       </c>
       <c r="N19">
         <f t="shared" si="0"/>
-        <v>5.6349886421314999E-2</v>
+        <v>5.0189188449992268E-2</v>
       </c>
       <c r="O19" s="1">
         <f t="shared" si="3"/>
-        <v>56.349886421314999</v>
+        <v>50.189188449992265</v>
       </c>
       <c r="P19" t="s">
         <v>12</v>
@@ -2917,23 +2915,23 @@
         <v>200000</v>
       </c>
       <c r="C20" s="6">
-        <v>1.05079440000008</v>
+        <v>1.7103843000077099</v>
       </c>
       <c r="D20" s="6">
-        <v>0.98914320000039802</v>
+        <v>2.00151410000398</v>
       </c>
       <c r="E20" s="6">
-        <v>1.10196619999987</v>
+        <v>1.7840661999944101</v>
       </c>
       <c r="F20" s="6">
-        <v>1.1487871000008401</v>
+        <v>1.8262739999918201</v>
       </c>
       <c r="G20" s="6">
-        <v>1.0484720000004</v>
+        <v>1.66481659999408</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" si="1"/>
-        <v>1.0678325800003177</v>
+        <v>1.7974110399984</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>15</v>
@@ -2941,18 +2939,18 @@
       <c r="J20" s="10"/>
       <c r="K20" s="12">
         <f t="shared" si="2"/>
-        <v>1067.8325800003176</v>
+        <v>1797.4110399983999</v>
       </c>
       <c r="L20" s="12" t="s">
         <v>12</v>
       </c>
       <c r="N20">
         <f t="shared" si="0"/>
-        <v>6.0365322170958149E-2</v>
+        <v>0.13021535365637729</v>
       </c>
       <c r="O20" s="1">
         <f t="shared" si="3"/>
-        <v>60.365322170958152</v>
+        <v>130.21535365637729</v>
       </c>
       <c r="P20" t="s">
         <v>12</v>
@@ -2963,23 +2961,23 @@
         <v>300000</v>
       </c>
       <c r="C21" s="6">
-        <v>1.8804995999998899</v>
+        <v>2.51597600000968</v>
       </c>
       <c r="D21" s="6">
-        <v>1.62017879999984</v>
+        <v>2.62467380000452</v>
       </c>
       <c r="E21" s="6">
-        <v>1.6657891000013401</v>
+        <v>2.71521870000287</v>
       </c>
       <c r="F21" s="6">
-        <v>1.5607677000007201</v>
+        <v>2.5119177000014998</v>
       </c>
       <c r="G21" s="6">
-        <v>1.5196841999986599</v>
+        <v>2.5828863000060598</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" si="1"/>
-        <v>1.6493838800000897</v>
+        <v>2.5901345000049263</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>15</v>
@@ -2987,18 +2985,18 @@
       <c r="J21" s="10"/>
       <c r="K21" s="12">
         <f t="shared" si="2"/>
-        <v>1649.3838800000897</v>
+        <v>2590.1345000049264</v>
       </c>
       <c r="L21" s="12" t="s">
         <v>12</v>
       </c>
       <c r="N21">
         <f t="shared" si="0"/>
-        <v>0.14072258020862397</v>
+        <v>8.4422905157800696E-2</v>
       </c>
       <c r="O21" s="1">
         <f t="shared" si="3"/>
-        <v>140.72258020862395</v>
+        <v>84.422905157800699</v>
       </c>
       <c r="P21" t="s">
         <v>12</v>
@@ -3009,23 +3007,23 @@
         <v>400000</v>
       </c>
       <c r="C22" s="6">
-        <v>2.0205874999992299</v>
+        <v>3.3883669000060701</v>
       </c>
       <c r="D22" s="6">
-        <v>2.1111103999992298</v>
+        <v>3.38592260000586</v>
       </c>
       <c r="E22" s="7">
-        <v>2.2195902000003098</v>
+        <v>3.59936399999423</v>
       </c>
       <c r="F22" s="6">
-        <v>2.1097565999989398</v>
+        <v>3.7551513000071202</v>
       </c>
       <c r="G22" s="6">
-        <v>2.2151059999996501</v>
+        <v>3.4944471999915501</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" si="1"/>
-        <v>2.135230139999472</v>
+        <v>3.5246504000009664</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>15</v>
@@ -3033,18 +3031,18 @@
       <c r="J22" s="10"/>
       <c r="K22" s="12">
         <f t="shared" si="2"/>
-        <v>2135.2301399994722</v>
+        <v>3524.6504000009663</v>
       </c>
       <c r="L22" s="12" t="s">
         <v>12</v>
       </c>
       <c r="N22">
         <f t="shared" si="0"/>
-        <v>8.3472107224773162E-2</v>
+        <v>0.1560797993661818</v>
       </c>
       <c r="O22" s="1">
         <f t="shared" si="3"/>
-        <v>83.472107224773168</v>
+        <v>156.07979936618179</v>
       </c>
       <c r="P22" t="s">
         <v>12</v>
@@ -3055,23 +3053,23 @@
         <v>500000</v>
       </c>
       <c r="C23" s="6">
-        <v>2.6378251000005499</v>
+        <v>4.2508722000056798</v>
       </c>
       <c r="D23" s="6">
-        <v>2.6596809000002302</v>
+        <v>4.56190779998723</v>
       </c>
       <c r="E23" s="6">
-        <v>2.7082441000002202</v>
+        <v>4.2955921000102499</v>
       </c>
       <c r="F23" s="6">
-        <v>2.8234882999986399</v>
+        <v>4.5066957000089998</v>
       </c>
       <c r="G23" s="6">
-        <v>2.7457465999996198</v>
+        <v>4.5093595999933296</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" si="1"/>
-        <v>2.714996999999852</v>
+        <v>4.4248854800010973</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>15</v>
@@ -3079,18 +3077,18 @@
       <c r="J23" s="10"/>
       <c r="K23" s="12">
         <f t="shared" si="2"/>
-        <v>2714.9969999998521</v>
+        <v>4424.8854800010977</v>
       </c>
       <c r="L23" s="12" t="s">
         <v>12</v>
       </c>
       <c r="N23">
         <f t="shared" si="0"/>
-        <v>7.3784949011719503E-2</v>
+        <v>0.14106851610547869</v>
       </c>
       <c r="O23" s="1">
         <f t="shared" si="3"/>
-        <v>73.784949011719505</v>
+        <v>141.06851610547869</v>
       </c>
       <c r="P23" t="s">
         <v>12</v>
